--- a/src/main/resources/at/ko/transport/business/cmr/boundary/cmr.xlsx
+++ b/src/main/resources/at/ko/transport/business/cmr/boundary/cmr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="20730" windowHeight="11760"/>
@@ -11,7 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G38"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -466,7 +466,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="43.5" customHeight="1">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -595,7 +595,7 @@
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A13:C19"/>
   </mergeCells>
-  <pageMargins left="0" right="0.70866141732283472" top="0.47244094488188981" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0" right="0.70866141732283472" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
